--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericnaon/Desktop/Desktop - Eric’s MacBook Pro/Git/Computing-Profit-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCFBBA-6037-254C-8426-9B6B3C721AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D885CD2-21A0-5C4C-98E3-CF0C89BCA059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
         <v>200</v>
       </c>
       <c r="G7" s="5">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="H7" s="2">
         <v>250</v>
@@ -660,7 +660,7 @@
         <v>350</v>
       </c>
       <c r="L7" s="3">
-        <v>1475</v>
+        <v>750</v>
       </c>
       <c r="M7">
         <v>650</v>
@@ -715,7 +715,7 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="W11" s="2">
         <f>SUM(7:7)</f>
-        <v>34855</v>
+        <v>25130</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">

--- a/Costs.xlsx
+++ b/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericnaon/Desktop/Desktop - Eric’s MacBook Pro/Git/Computing-Profit-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D885CD2-21A0-5C4C-98E3-CF0C89BCA059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279CFAC-F38C-D24B-8E5A-15672A7CEA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
         <v>4350</v>
       </c>
       <c r="K7" s="3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L7" s="3">
         <v>750</v>
@@ -715,7 +715,7 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="W11" s="2">
         <f>SUM(7:7)</f>
-        <v>25130</v>
+        <v>25080</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
